--- a/TimeAnalysis.xlsx
+++ b/TimeAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9080A0-CB13-4D08-B1D8-1A45D5808643}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CF3511-B3F4-4372-8FEF-DB2E09115346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{C1B411B8-8504-4230-BBE7-5C3DDF1847B2}"/>
+    <workbookView xWindow="945" yWindow="2145" windowWidth="17805" windowHeight="12480" activeTab="2" xr2:uid="{C1B411B8-8504-4230-BBE7-5C3DDF1847B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Growing r" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t># Rooms</t>
   </si>
@@ -48,40 +48,16 @@
     <t>number of students is 100</t>
   </si>
   <si>
-    <t>number of classes is 36</t>
-  </si>
-  <si>
-    <t>number of professors is 18</t>
-  </si>
-  <si>
-    <t>number of timeslots is 5</t>
-  </si>
-  <si>
     <t>Time (seconds)</t>
-  </si>
-  <si>
-    <t>number of rooms is 1000</t>
   </si>
   <si>
     <t># Classes</t>
   </si>
   <si>
-    <t>number of timeslots is 2000</t>
-  </si>
-  <si>
     <t>number of timeslots is 100</t>
   </si>
   <si>
-    <t>number of classes is 1000</t>
-  </si>
-  <si>
-    <t>number of professors is 500</t>
-  </si>
-  <si>
     <t>number of rooms is 100</t>
-  </si>
-  <si>
-    <t>The number of students must be less than the number of classes times one-forth the max room capacity (default 100, you can change the script to increase this.</t>
   </si>
   <si>
     <t>10 rooms</t>
@@ -124,6 +100,72 @@
   </si>
   <si>
     <t>50 professors</t>
+  </si>
+  <si>
+    <t>number of classes is 100</t>
+  </si>
+  <si>
+    <t>number of professors is 50</t>
+  </si>
+  <si>
+    <t>number of rooms is 10000</t>
+  </si>
+  <si>
+    <t>number of classes is 10000</t>
+  </si>
+  <si>
+    <t>number of timeslots is 10000</t>
+  </si>
+  <si>
+    <t>number of professors is 5000</t>
+  </si>
+  <si>
+    <t># Students</t>
+  </si>
+  <si>
+    <t>Worst Case</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>% Opt</t>
+  </si>
+  <si>
+    <t>Worst Optimality</t>
+  </si>
+  <si>
+    <t>1 timeslot</t>
+  </si>
+  <si>
+    <t>8 classes</t>
+  </si>
+  <si>
+    <t>8 rooms</t>
+  </si>
+  <si>
+    <t>%Opt</t>
+  </si>
+  <si>
+    <t>Optimality for Growing C</t>
+  </si>
+  <si>
+    <t>1000 rooms</t>
+  </si>
+  <si>
+    <t>10 timeslots</t>
+  </si>
+  <si>
+    <t>3000 students</t>
   </si>
 </sst>
 </file>
@@ -268,10 +310,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -291,122 +331,136 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7069416579552698E-2"/>
+                  <c:y val="-4.2018845617688061E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Growing r'!$A$2:$A$18</c:f>
+              <c:f>'Growing r'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>250000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Growing r'!$B$2:$B$18</c:f>
+              <c:f>'Growing r'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.8424263000488199E-3</c:v>
+                  <c:v>2.9933452606201098E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8889179229736302E-3</c:v>
+                  <c:v>1.8949270248412999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0362606048583902E-3</c:v>
+                  <c:v>3.7926912307739202E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6903152465820299E-3</c:v>
+                  <c:v>5.8841705322265597E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8657913208007799E-3</c:v>
+                  <c:v>7.4801206588745103E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.93612480163574E-3</c:v>
+                  <c:v>9.3799829483032199E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0968189239501901E-3</c:v>
+                  <c:v>0.113695383071899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2627582550048802E-3</c:v>
+                  <c:v>0.13663434982299799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4945011138915998E-3</c:v>
+                  <c:v>0.15259170532226499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8568248748779297E-3</c:v>
+                  <c:v>0.174532175064086</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0955753326415998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.13322734832763E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.8237791061401298E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.10251045227050699</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.22605776786804199</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.44809269905090299</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0045108795166</c:v>
+                  <c:v>0.196474313735961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,7 +648,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Runtime (seconds)</a:t>
+                  <a:t>Runtime (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -756,11 +810,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Runtime</a:t>
+              <a:t>Runtime as Number</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> as Number of Classes Grows</a:t>
+              <a:t> of Classes Grows</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -799,27 +853,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Growing c'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time (seconds)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -839,124 +880,144 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.273797025371829E-2"/>
+                  <c:y val="-4.1666666666666669E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Growing c'!$A$2:$A$17</c:f>
+              <c:f>'Growing c'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>250000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Growing c'!$B$2:$B$17</c:f>
+              <c:f>'Growing c'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.31766891479492099</c:v>
+                  <c:v>4.4088363647460903E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27464127540588301</c:v>
+                  <c:v>8.3322525024413993E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28408002853393499</c:v>
+                  <c:v>1.2337684631347601E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38103652000427202</c:v>
+                  <c:v>1.4564037322998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28890085220336897</c:v>
+                  <c:v>1.83842182159423E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.364736318588256</c:v>
+                  <c:v>2.3890733718872001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.303042411804199</c:v>
+                  <c:v>2.71801948547363E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33703374862670898</c:v>
+                  <c:v>3.1401395797729402E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29079723358154203</c:v>
+                  <c:v>3.5237550735473598E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28404688835143999</c:v>
+                  <c:v>3.8471221923828097E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29447722434997498</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.34280490875244102</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.68011403083801203</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.72795438766479</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.3367719650268501</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26.361420154571501</c:v>
+                  <c:v>4.0971040725708001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E880-482E-840A-39123D2A14F9}"/>
+              <c16:uniqueId val="{00000000-D8B8-42F9-AC30-B683C7FDDCC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -968,11 +1029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="479096591"/>
-        <c:axId val="479097839"/>
+        <c:axId val="909169696"/>
+        <c:axId val="909182176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="479096591"/>
+        <c:axId val="909169696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,12 +1145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479097839"/>
+        <c:crossAx val="909182176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="479097839"/>
+        <c:axId val="909182176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1191,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Runtime (seconds)</a:t>
+                  <a:t>Runtime (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1201,7 +1262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479096591"/>
+        <c:crossAx val="909169696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1292,7 +1353,559 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Runtime as  Number of Students Grows</a:t>
+              <a:t>Runtime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> as Number of Students Grows</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2920822397200349E-2"/>
+                  <c:y val="-2.1832166812481772E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Growing s'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Growing s'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.3758621215820304E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9661140441894497E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8455677032470703E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.10087394714355E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.38776302337646E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5880107879638599E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.83737277984619E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0999670028686499E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3187398910522398E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5767803192138599E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8598070144653299E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC28-400A-BA9C-A7960EFB27A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="923022768"/>
+        <c:axId val="923023184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="923022768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Students</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923023184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="923023184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923022768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime as Number of Students</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Grow</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1330,27 +1943,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Growing s'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time (seconds)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1370,118 +1970,193 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Growing s'!$A$2:$A$16</c:f>
+              <c:f>'Growing s'!$A$29:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2500</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Growing s'!$B$2:$B$16</c:f>
+              <c:f>'Growing s'!$B$29:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.6471099853515599E-3</c:v>
+                  <c:v>1.1537075042724601E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7172050476074201E-3</c:v>
+                  <c:v>4.6648979187011701E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9947242736816398E-3</c:v>
+                  <c:v>7.0338249206542899E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8807601928710903E-3</c:v>
+                  <c:v>8.9249610900878906E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3161125183105399E-3</c:v>
+                  <c:v>1.0016918182373E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2548389434814401E-3</c:v>
+                  <c:v>1.3167381286621E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4903964996337804E-3</c:v>
+                  <c:v>1.4683723449707E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6596736907958898E-3</c:v>
+                  <c:v>1.5735387802123999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0913772583007795E-3</c:v>
+                  <c:v>1.7439126968383699E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.27005577087402E-2</c:v>
+                  <c:v>1.9455194473266602E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7364501953125E-2</c:v>
+                  <c:v>2.3554563522338801E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7757167816162099E-2</c:v>
+                  <c:v>5.2006721496581997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13955593109130801</c:v>
+                  <c:v>9.4606161117553697E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31851053237915</c:v>
+                  <c:v>0.134867668151855</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1485641002655</c:v>
+                  <c:v>0.219609260559082</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27824425697326599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.37774825096130299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.48207211494445801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61728143692016602</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.775504350662231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B1CB-418C-8A09-BBC26D728C59}"/>
+              <c16:uniqueId val="{00000000-998B-47DC-AC47-843ACF5A3063}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1493,11 +2168,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="272069855"/>
-        <c:axId val="272070687"/>
+        <c:axId val="1986820000"/>
+        <c:axId val="1986820832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="272069855"/>
+        <c:axId val="1986820000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,12 +2284,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272070687"/>
+        <c:crossAx val="1986820832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272070687"/>
+        <c:axId val="1986820832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,14 +2330,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Runtime (seconds)</a:t>
+                  <a:t>Runtime</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1732,7 +2405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272069855"/>
+        <c:crossAx val="1986820000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1788,7 +2461,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1836,7 +2509,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1853,10 +2526,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1876,6 +2547,65 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Growing all'!$A$2:$A$7</c:f>
@@ -1930,7 +2660,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-946E-4405-8BB2-A50B0D71D151}"/>
@@ -2284,6 +3014,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4348,20 +5118,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175554</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>77843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480354</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>154042</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4393,23 +5679,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>429540</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>75466</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>136327</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>423979</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>63886</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>456462</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B909CBA-6E0C-4F6B-8B72-753F92FD5FF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01A975E-37DA-4437-8CD0-F7946C359C2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4434,23 +5720,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>472817</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>172996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>170763</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>84439</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A523FC0-4098-49F2-9D65-5A860E9761D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BACD19-B889-42A6-826F-D0D2E19F6318}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4463,6 +5749,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>530794</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>36797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>218179</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>158587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FFB1AB-8181-41F0-B340-BBA2783593FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4809,10 +6131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5FC3D1-2BA8-4DE6-A9D5-2A2FFFF69E2C}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView topLeftCell="A12" zoomScale="96" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4822,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -4830,10 +6152,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>2.8424263000488199E-3</v>
+        <v>2.9933452606201098E-3</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -4841,32 +6163,32 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="B3">
-        <v>2.8889179229736302E-3</v>
+        <v>1.8949270248412999E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="B4">
-        <v>3.0362606048583902E-3</v>
+        <v>3.7926912307739202E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>150</v>
+        <v>3000</v>
       </c>
       <c r="B5">
-        <v>2.6903152465820299E-3</v>
+        <v>5.8841705322265597E-2</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -4874,106 +6196,64 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="B6">
-        <v>2.8657913208007799E-3</v>
+        <v>7.4801206588745103E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="B7">
-        <v>2.93612480163574E-3</v>
+        <v>9.3799829483032199E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>400</v>
+        <v>6000</v>
       </c>
       <c r="B8">
-        <v>3.0968189239501901E-3</v>
+        <v>0.113695383071899</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>500</v>
+        <v>7000</v>
       </c>
       <c r="B9">
-        <v>3.2627582550048802E-3</v>
+        <v>0.13663434982299799</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="B10">
-        <v>3.4945011138915998E-3</v>
+        <v>0.15259170532226499</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="B11">
-        <v>4.8568248748779297E-3</v>
+        <v>0.174532175064086</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="B12">
-        <v>7.0955753326415998E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10000</v>
-      </c>
-      <c r="B13">
-        <v>1.13322734832763E-2</v>
+        <v>0.196474313735961</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>50000</v>
-      </c>
-      <c r="B14">
-        <v>5.8237791061401298E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>100000</v>
-      </c>
-      <c r="B15">
-        <v>0.10251045227050699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>250000</v>
-      </c>
-      <c r="B16">
-        <v>0.22605776786804199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>500000</v>
-      </c>
-      <c r="B17">
-        <v>0.44809269905090299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1000000</v>
-      </c>
-      <c r="B18">
-        <v>1.0045108795166</v>
+        <f>B4-B3</f>
+        <v>1.8977642059326203E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4984,20 +6264,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD05B1D-7C8A-41EE-B548-CEC90D6CA114}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection sqref="A1:B17"/>
+    <sheetView topLeftCell="A23" zoomScale="130" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -5005,10 +6285,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>0.31766891479492099</v>
+        <v>4.4088363647460903E-3</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -5016,133 +6296,269 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="B3">
-        <v>0.27464127540588301</v>
+        <v>8.3322525024413993E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="B4">
-        <v>0.28408002853393499</v>
+        <v>1.2337684631347601E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>150</v>
+        <v>3000</v>
       </c>
       <c r="B5">
-        <v>0.38103652000427202</v>
+        <v>1.4564037322998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="B6">
-        <v>0.28890085220336897</v>
+        <v>1.83842182159423E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="B7">
-        <v>0.364736318588256</v>
+        <v>2.3890733718872001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>400</v>
+        <v>6000</v>
       </c>
       <c r="B8">
-        <v>0.303042411804199</v>
+        <v>2.71801948547363E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>500</v>
+        <v>7000</v>
       </c>
       <c r="B9">
-        <v>0.33703374862670898</v>
+        <v>3.1401395797729402E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="B10">
-        <v>0.29079723358154203</v>
+        <v>3.5237550735473598E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="B11">
-        <v>0.28404688835143999</v>
+        <v>3.8471221923828097E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12">
+        <v>4.0971040725708001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1000</v>
+      </c>
+      <c r="B31">
+        <v>12000</v>
+      </c>
+      <c r="C31">
+        <v>10289</v>
+      </c>
+      <c r="D31">
+        <f>C31/B31</f>
+        <v>0.85741666666666672</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2000</v>
+      </c>
+      <c r="B32">
+        <v>12000</v>
+      </c>
+      <c r="C32">
+        <v>10341</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D40" si="0">C32/B32</f>
+        <v>0.86175000000000002</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3000</v>
+      </c>
+      <c r="B33">
+        <v>12000</v>
+      </c>
+      <c r="C33">
+        <v>10321</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.86008333333333331</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4000</v>
+      </c>
+      <c r="B34">
+        <v>12000</v>
+      </c>
+      <c r="C34">
+        <v>10240</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.85333333333333339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>5000</v>
       </c>
-      <c r="B12">
-        <v>0.29447722434997498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B35">
+        <v>12000</v>
+      </c>
+      <c r="C35">
+        <v>10342</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.86183333333333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6000</v>
+      </c>
+      <c r="B36">
+        <v>12000</v>
+      </c>
+      <c r="C36">
+        <v>10354</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.86283333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7000</v>
+      </c>
+      <c r="B37">
+        <v>12000</v>
+      </c>
+      <c r="C37">
+        <v>10336</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.86133333333333328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8000</v>
+      </c>
+      <c r="B38">
+        <v>12000</v>
+      </c>
+      <c r="C38">
+        <v>10346</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.86216666666666664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9000</v>
+      </c>
+      <c r="B39">
+        <v>12000</v>
+      </c>
+      <c r="C39">
+        <v>10312</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.85933333333333328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>10000</v>
       </c>
-      <c r="B13">
-        <v>0.34280490875244102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>50000</v>
-      </c>
-      <c r="B14">
-        <v>0.68011403083801203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>100000</v>
-      </c>
-      <c r="B15">
-        <v>1.72795438766479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>250000</v>
-      </c>
-      <c r="B16">
-        <v>7.3367719650268501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>500000</v>
-      </c>
-      <c r="B17">
-        <v>26.361420154571501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1000000</v>
+      <c r="B40">
+        <v>12000</v>
+      </c>
+      <c r="C40">
+        <v>10339</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.86158333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -5153,20 +6569,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42332C7-9559-48D3-B43D-892CE4A9C68C}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="E14" zoomScale="170" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -5174,150 +6590,606 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>6.6471099853515599E-3</v>
+        <v>5.3758621215820304E-3</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="B3">
-        <v>6.7172050476074201E-3</v>
+        <v>6.9661140441894497E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="B4">
-        <v>6.9947242736816398E-3</v>
+        <v>8.8455677032470703E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>150</v>
+        <v>3000</v>
       </c>
       <c r="B5">
-        <v>6.8807601928710903E-3</v>
+        <v>1.10087394714355E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="B6">
-        <v>7.3161125183105399E-3</v>
+        <v>1.38776302337646E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="B7">
-        <v>7.2548389434814401E-3</v>
+        <v>1.5880107879638599E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>400</v>
+        <v>6000</v>
       </c>
       <c r="B8">
-        <v>7.4903964996337804E-3</v>
+        <v>1.83737277984619E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>500</v>
+        <v>7000</v>
       </c>
       <c r="B9">
-        <v>7.6596736907958898E-3</v>
+        <v>2.0999670028686499E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="B10">
-        <v>9.0913772583007795E-3</v>
+        <v>2.3187398910522398E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="B11">
-        <v>1.27005577087402E-2</v>
+        <v>2.5767803192138599E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="B12">
-        <v>1.7364501953125E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10000</v>
-      </c>
-      <c r="B13">
-        <v>2.7757167816162099E-2</v>
+        <v>2.8598070144653299E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="B14">
-        <v>0.13955593109130801</v>
+        <v>0.26197481155395502</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B15">
-        <v>0.31851053237915</v>
+        <v>0.31534957885742099</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>250000</v>
+        <v>20000</v>
       </c>
       <c r="B16">
-        <v>1.1485641002655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.33428740501403797</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>500000</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+      <c r="B17">
+        <v>0.362805366516113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1000000</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>40000</v>
+      </c>
+      <c r="B18">
+        <v>0.39737391471862699</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50000</v>
+      </c>
+      <c r="B19">
+        <v>0.41348600387573198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>60000</v>
+      </c>
+      <c r="B20">
+        <v>0.465438842773437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>70000</v>
+      </c>
+      <c r="B21">
+        <v>0.49935126304626398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>80000</v>
+      </c>
+      <c r="B22">
+        <v>0.54786324501037598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>90000</v>
+      </c>
+      <c r="B23">
+        <v>0.59405136108398404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>100000</v>
+      </c>
+      <c r="B24">
+        <v>0.66184043884277299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>1.1537075042724601E-3</v>
+      </c>
+      <c r="C29">
+        <v>400</v>
+      </c>
+      <c r="D29">
+        <v>99</v>
+      </c>
+      <c r="E29">
+        <f>D29/C29</f>
+        <v>0.2475</v>
+      </c>
+      <c r="G29">
+        <f>MIN(E29:E48)</f>
+        <v>0.24570833333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1000</v>
+      </c>
+      <c r="B30">
+        <v>4.6648979187011701E-3</v>
+      </c>
+      <c r="C30">
+        <v>4000</v>
+      </c>
+      <c r="D30">
+        <v>983</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E48" si="0">D30/C30</f>
+        <v>0.24575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2000</v>
+      </c>
+      <c r="B31">
+        <v>7.0338249206542899E-3</v>
+      </c>
+      <c r="C31">
+        <v>8000</v>
+      </c>
+      <c r="D31">
+        <v>1977</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.24712500000000001</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3000</v>
+      </c>
+      <c r="B32">
+        <v>8.9249610900878906E-3</v>
+      </c>
+      <c r="C32">
+        <v>12000</v>
+      </c>
+      <c r="D32">
+        <v>2958</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.2465</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4000</v>
+      </c>
+      <c r="B33">
+        <v>1.0016918182373E-2</v>
+      </c>
+      <c r="C33">
+        <v>16000</v>
+      </c>
+      <c r="D33">
+        <v>3958</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.24737500000000001</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5000</v>
+      </c>
+      <c r="B34">
+        <v>1.3167381286621E-2</v>
+      </c>
+      <c r="C34">
+        <v>20000</v>
+      </c>
+      <c r="D34">
+        <v>4931</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.24654999999999999</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6000</v>
+      </c>
+      <c r="B35">
+        <v>1.4683723449707E-2</v>
+      </c>
+      <c r="C35">
+        <v>24000</v>
+      </c>
+      <c r="D35">
+        <v>5897</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.24570833333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7000</v>
+      </c>
+      <c r="B36">
+        <v>1.5735387802123999E-2</v>
+      </c>
+      <c r="C36">
+        <v>28000</v>
+      </c>
+      <c r="D36">
+        <v>6893</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.24617857142857144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8000</v>
+      </c>
+      <c r="B37">
+        <v>1.7439126968383699E-2</v>
+      </c>
+      <c r="C37">
+        <v>32000</v>
+      </c>
+      <c r="D37">
+        <v>7886</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0.2464375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9000</v>
+      </c>
+      <c r="B38">
+        <v>1.9455194473266602E-2</v>
+      </c>
+      <c r="C38">
+        <v>36000</v>
+      </c>
+      <c r="D38">
+        <v>8873</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.24647222222222223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10000</v>
+      </c>
+      <c r="B39">
+        <v>2.3554563522338801E-2</v>
+      </c>
+      <c r="C39">
+        <v>40000</v>
+      </c>
+      <c r="D39">
+        <v>9837</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.245925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20000</v>
+      </c>
+      <c r="B40">
+        <v>5.2006721496581997E-2</v>
+      </c>
+      <c r="C40">
+        <v>80000</v>
+      </c>
+      <c r="D40">
+        <v>19710</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.24637500000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>30000</v>
+      </c>
+      <c r="B41">
+        <v>9.4606161117553697E-2</v>
+      </c>
+      <c r="C41">
+        <v>120000</v>
+      </c>
+      <c r="D41">
+        <v>29599</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.24665833333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40000</v>
+      </c>
+      <c r="B42">
+        <v>0.134867668151855</v>
+      </c>
+      <c r="C42">
+        <v>160000</v>
+      </c>
+      <c r="D42">
+        <v>39435</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0.24646874999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>50000</v>
+      </c>
+      <c r="B43">
+        <v>0.219609260559082</v>
+      </c>
+      <c r="C43">
+        <v>200000</v>
+      </c>
+      <c r="D43">
+        <v>49315</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0.24657499999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>60000</v>
+      </c>
+      <c r="B44">
+        <v>0.27824425697326599</v>
+      </c>
+      <c r="C44">
+        <v>240000</v>
+      </c>
+      <c r="D44">
+        <v>59185</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.24660416666666668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>70000</v>
+      </c>
+      <c r="B45">
+        <v>0.37774825096130299</v>
+      </c>
+      <c r="C45">
+        <v>280000</v>
+      </c>
+      <c r="D45">
+        <v>69052</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.2466142857142857</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>80000</v>
+      </c>
+      <c r="B46">
+        <v>0.48207211494445801</v>
+      </c>
+      <c r="C46">
+        <v>320000</v>
+      </c>
+      <c r="D46">
+        <v>78901</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0.24656562500000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>90000</v>
+      </c>
+      <c r="B47">
+        <v>0.61728143692016602</v>
+      </c>
+      <c r="C47">
+        <v>360000</v>
+      </c>
+      <c r="D47">
+        <v>88707</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.24640833333333334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>100000</v>
+      </c>
+      <c r="B48">
+        <v>0.775504350662231</v>
+      </c>
+      <c r="C48">
+        <v>400000</v>
+      </c>
+      <c r="D48">
+        <v>98597</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0.2464925</v>
       </c>
     </row>
   </sheetData>
@@ -5341,16 +7213,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5361,10 +7233,10 @@
         <v>2.4974346160888598E-3</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5375,10 +7247,10 @@
         <v>3.4029483795165998E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5389,10 +7261,10 @@
         <v>3.3879280090332001E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5403,10 +7275,10 @@
         <v>5.2586793899536098E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5417,10 +7289,10 @@
         <v>4.2272448539733798</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
